--- a/location.xlsx
+++ b/location.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf80a7f9d454411c/Desktop/Intern/twitter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sean\Intern\Twitter\twit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC104826D11964565ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF8B72B-3DF5-410C-83A6-15C253DDA478}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6832FEA6-8E5C-4991-9F3E-EE12669B5604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Location</t>
   </si>
@@ -40,33 +40,6 @@
   </si>
   <si>
     <t>Singapore</t>
-  </si>
-  <si>
-    <t>Johor Bahru</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
-  </si>
-  <si>
-    <t>Batam</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>Bangkok</t>
-  </si>
-  <si>
-    <t>Hanoi</t>
-  </si>
-  <si>
-    <t>Manila</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
   </si>
 </sst>
 </file>
@@ -384,21 +357,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -424,136 +396,9 @@
       </c>
       <c r="D2">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1.66543</v>
-      </c>
-      <c r="C3">
-        <v>103.741356</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3.1390030000000002</v>
-      </c>
-      <c r="C4">
-        <v>101.686852</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1.069869</v>
-      </c>
-      <c r="C5">
-        <v>104.026273</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-6.1751100000000001</v>
-      </c>
-      <c r="C6">
-        <v>106.865036</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>13.756330999999999</v>
-      </c>
-      <c r="C7">
-        <v>100.501762</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>21.027763</v>
-      </c>
-      <c r="C8">
-        <v>105.83416</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>14.599512000000001</v>
-      </c>
-      <c r="C9">
-        <v>120.984222</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>39.904201999999998</v>
-      </c>
-      <c r="C10">
-        <v>116.407394</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>31.230391000000001</v>
-      </c>
-      <c r="C11">
-        <v>121.47370100000001</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>